--- a/posesiones/1381262.xlsx
+++ b/posesiones/1381262.xlsx
@@ -1859,10 +1859,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2053,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>11</v>
@@ -2106,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8">
         <v>10</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2209,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <v>17</v>
@@ -2262,7 +2262,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R11">
         <v>23</v>
@@ -2315,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2503,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R16">
         <v>28</v>
@@ -2556,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R17">
         <v>19</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2656,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R19">
         <v>6</v>
@@ -2709,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R20">
         <v>14</v>
@@ -2762,7 +2762,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R21">
         <v>18</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2862,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2912,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3103,7 +3103,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R28">
         <v>7</v>
@@ -3156,7 +3156,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R29">
         <v>21</v>
@@ -3209,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3259,7 +3259,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R31">
         <v>13</v>
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3362,7 +3362,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R33">
         <v>19</v>
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3465,7 +3465,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R35">
         <v>5</v>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3565,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R37">
         <v>7</v>
@@ -3618,7 +3618,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R38">
         <v>13</v>
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3765,7 +3765,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R41">
         <v>22</v>
@@ -3818,7 +3818,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R42">
         <v>15</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R45">
         <v>14</v>
@@ -4012,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4156,7 +4156,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R49">
         <v>0</v>
@@ -4209,7 +4209,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R50">
         <v>12</v>
@@ -4262,7 +4262,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R51">
         <v>17</v>
@@ -4315,7 +4315,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R52">
         <v>11</v>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4418,7 +4418,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R54">
         <v>8</v>
@@ -4468,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4515,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4565,7 +4565,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R57">
         <v>16</v>
@@ -4618,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4665,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4762,7 +4762,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R61">
         <v>33</v>
@@ -4812,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4862,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R63">
         <v>12</v>
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4959,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5053,7 +5053,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5103,7 +5103,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R68">
         <v>36</v>
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5203,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5300,7 +5300,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R72">
         <v>13</v>
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5403,7 +5403,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R74">
         <v>18</v>
@@ -5453,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5500,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5594,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5644,7 +5644,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R79">
         <v>22</v>
@@ -5697,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5838,7 +5838,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5885,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5935,7 +5935,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R85">
         <v>23</v>
@@ -5988,7 +5988,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R86">
         <v>19</v>
@@ -6041,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R87">
         <v>12</v>
@@ -6094,7 +6094,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R88">
         <v>21</v>
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6194,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6241,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6291,7 +6291,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R92">
         <v>24</v>
@@ -6341,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6388,7 +6388,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6435,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6485,7 +6485,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R96">
         <v>18</v>
@@ -6538,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6588,7 +6588,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R98">
         <v>1</v>
@@ -6632,10 +6632,10 @@
         <v>1</v>
       </c>
       <c r="P99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6682,7 +6682,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6729,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6776,7 +6776,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6823,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6864,10 +6864,10 @@
         <v>1</v>
       </c>
       <c r="P104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R105">
         <v>16</v>
@@ -6970,7 +6970,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7020,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R107">
         <v>19</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7120,7 +7120,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R109">
         <v>20</v>
@@ -7170,7 +7170,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7217,7 +7217,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7358,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7405,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7499,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7596,7 +7596,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R119">
         <v>26</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7696,7 +7696,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R121">
         <v>6</v>
@@ -7746,7 +7746,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7796,7 +7796,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R123">
         <v>22</v>
@@ -7849,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7896,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7943,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7990,7 +7990,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8040,7 +8040,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R128">
         <v>17</v>
@@ -8093,7 +8093,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R129">
         <v>20</v>
@@ -8146,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8196,7 +8196,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R131">
         <v>15</v>
@@ -8249,7 +8249,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8299,7 +8299,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R133">
         <v>21</v>
@@ -8349,7 +8349,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8399,7 +8399,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R135">
         <v>19</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8502,7 +8502,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R137">
         <v>8</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8596,7 +8596,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8646,7 +8646,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R140">
         <v>21</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8749,7 +8749,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R142">
         <v>5</v>
@@ -8799,7 +8799,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8849,7 +8849,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R144">
         <v>6</v>
@@ -8899,7 +8899,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8949,7 +8949,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R146">
         <v>26</v>
@@ -8999,7 +8999,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9049,7 +9049,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R148">
         <v>21</v>
@@ -9102,7 +9102,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R149">
         <v>11</v>
@@ -9152,7 +9152,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9202,7 +9202,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R151">
         <v>5</v>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9299,7 +9299,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9346,7 +9346,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9440,7 +9440,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9487,7 +9487,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9534,7 +9534,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9581,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9628,7 +9628,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9678,7 +9678,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R161">
         <v>30</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9778,7 +9778,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R163">
         <v>20</v>
@@ -9831,7 +9831,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R164">
         <v>21</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9934,7 +9934,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R166">
         <v>21</v>
@@ -9981,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10075,7 +10075,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10125,7 +10125,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R170">
         <v>34</v>
@@ -10175,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10222,7 +10222,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10319,7 +10319,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R174">
         <v>25</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10422,7 +10422,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R176">
         <v>13</v>
@@ -10472,7 +10472,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10522,7 +10522,7 @@
         <v>1</v>
       </c>
       <c r="Q178">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R178">
         <v>20</v>
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10619,7 +10619,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10666,7 +10666,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10713,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10763,7 +10763,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R183">
         <v>32</v>
@@ -10813,7 +10813,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10863,7 +10863,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R185">
         <v>20</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10966,7 +10966,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R187">
         <v>13</v>
@@ -11016,7 +11016,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11066,7 +11066,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R189">
         <v>5</v>
@@ -11119,7 +11119,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11169,7 +11169,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R191">
         <v>22</v>
@@ -11222,7 +11222,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="193" spans="1:17">
@@ -11269,7 +11269,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="194" spans="1:17">
@@ -11316,7 +11316,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="195" spans="1:17">
@@ -11363,7 +11363,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="196" spans="1:17">
@@ -11410,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="197" spans="1:17">
@@ -11457,7 +11457,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="198" spans="1:17">
@@ -11504,7 +11504,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="199" spans="1:17">
@@ -11551,7 +11551,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="200" spans="1:17">
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="201" spans="1:17">
@@ -11645,7 +11645,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="202" spans="1:17">
@@ -11692,7 +11692,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="203" spans="1:17">
@@ -11736,7 +11736,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="204" spans="1:17">
@@ -11783,7 +11783,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="205" spans="1:17">
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="206" spans="1:17">
@@ -11877,7 +11877,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="207" spans="1:17">
@@ -11924,7 +11924,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="208" spans="1:17">
@@ -11971,7 +11971,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12018,7 +12018,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12112,7 +12112,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12162,7 +12162,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R212">
         <v>19</v>
@@ -12215,7 +12215,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R213">
         <v>0</v>
@@ -12259,10 +12259,10 @@
         <v>1</v>
       </c>
       <c r="P214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q214">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12309,7 +12309,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12356,7 +12356,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12403,7 +12403,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12450,7 +12450,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12544,7 +12544,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12591,7 +12591,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12638,7 +12638,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12685,7 +12685,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12732,7 +12732,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12773,10 +12773,10 @@
         <v>1</v>
       </c>
       <c r="P225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q225">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12823,7 +12823,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12873,7 +12873,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12923,7 +12923,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="R228">
         <v>28</v>
@@ -12976,7 +12976,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R229">
         <v>19</v>
@@ -13029,7 +13029,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R230">
         <v>27</v>
@@ -13079,7 +13079,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13129,7 +13129,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13176,7 +13176,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13226,7 +13226,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13276,7 +13276,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R235">
         <v>17</v>
@@ -13329,7 +13329,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13379,7 +13379,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R237">
         <v>13</v>
@@ -13432,7 +13432,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13482,7 +13482,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R239">
         <v>12</v>
@@ -13532,7 +13532,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13579,7 +13579,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13626,7 +13626,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13673,7 +13673,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13720,7 +13720,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13767,7 +13767,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13814,7 +13814,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13864,7 +13864,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R247">
         <v>25</v>
@@ -13917,7 +13917,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R248">
         <v>12</v>
@@ -13970,7 +13970,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14020,7 +14020,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R250">
         <v>12</v>
@@ -14073,7 +14073,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14123,7 +14123,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R252">
         <v>5</v>
@@ -14173,7 +14173,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14223,7 +14223,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14270,7 +14270,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14317,7 +14317,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14367,7 +14367,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R257">
         <v>22</v>
@@ -14417,7 +14417,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14467,7 +14467,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R259">
         <v>21</v>
@@ -14520,7 +14520,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14570,7 +14570,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R261">
         <v>20</v>
@@ -14620,7 +14620,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14667,7 +14667,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14714,7 +14714,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14761,7 +14761,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14808,7 +14808,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14855,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14902,7 +14902,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14952,7 +14952,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R269">
         <v>42</v>
@@ -15005,7 +15005,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15055,7 +15055,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R271">
         <v>14</v>
@@ -15108,7 +15108,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15158,7 +15158,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R273">
         <v>9</v>
@@ -15208,7 +15208,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15255,7 +15255,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15302,7 +15302,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15349,7 +15349,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15396,7 +15396,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15446,7 +15446,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R279">
         <v>8</v>
@@ -15499,7 +15499,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R280">
         <v>7</v>
@@ -15549,7 +15549,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15596,7 +15596,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15643,7 +15643,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15693,7 +15693,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R284">
         <v>29</v>
@@ -15746,7 +15746,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15793,7 +15793,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15843,7 +15843,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15893,7 +15893,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R288">
         <v>19</v>
@@ -15943,7 +15943,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15987,7 +15987,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16034,7 +16034,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16081,7 +16081,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16131,7 +16131,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R293">
         <v>14</v>
@@ -16181,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16228,7 +16228,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16275,7 +16275,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16325,7 +16325,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R297">
         <v>0</v>
@@ -16375,7 +16375,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16425,7 +16425,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R299">
         <v>14</v>
@@ -16478,7 +16478,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R300">
         <v>18</v>
@@ -16528,7 +16528,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16578,7 +16578,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R302">
         <v>19</v>
@@ -16631,7 +16631,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16678,7 +16678,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16728,7 +16728,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16778,7 +16778,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R306">
         <v>13</v>
@@ -16828,7 +16828,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16875,7 +16875,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16922,7 +16922,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16969,7 +16969,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17016,7 +17016,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17063,7 +17063,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17110,7 +17110,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17157,7 +17157,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17204,7 +17204,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17254,7 +17254,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17301,7 +17301,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17348,7 +17348,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17395,7 +17395,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17442,7 +17442,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17492,7 +17492,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R321">
         <v>18</v>
@@ -17542,7 +17542,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17589,7 +17589,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17636,7 +17636,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17686,7 +17686,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17736,7 +17736,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R326">
         <v>13</v>
@@ -17786,7 +17786,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17833,7 +17833,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17880,7 +17880,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17927,7 +17927,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -17977,7 +17977,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R331">
         <v>0</v>
@@ -18027,7 +18027,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18074,7 +18074,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18124,7 +18124,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R334">
         <v>21</v>
@@ -18177,7 +18177,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18224,7 +18224,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18271,7 +18271,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18318,7 +18318,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18365,7 +18365,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18412,7 +18412,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18462,7 +18462,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R341">
         <v>14</v>
@@ -18515,7 +18515,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R342">
         <v>11</v>
@@ -18565,7 +18565,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18612,7 +18612,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18659,7 +18659,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18709,7 +18709,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R346">
         <v>19</v>
@@ -18762,7 +18762,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18812,7 +18812,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R348">
         <v>13</v>
@@ -18865,7 +18865,7 @@
         <v>1</v>
       </c>
       <c r="Q349">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R349">
         <v>14</v>
@@ -18915,7 +18915,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18965,7 +18965,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R351">
         <v>19</v>
@@ -19018,7 +19018,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19065,7 +19065,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19112,7 +19112,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19159,7 +19159,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19206,7 +19206,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19253,7 +19253,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19303,7 +19303,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19353,7 +19353,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R359">
         <v>16</v>
@@ -19403,7 +19403,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19444,10 +19444,10 @@
         <v>1</v>
       </c>
       <c r="P361" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q361">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19494,7 +19494,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19541,7 +19541,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19588,7 +19588,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19635,7 +19635,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19676,10 +19676,10 @@
         <v>1</v>
       </c>
       <c r="P366" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q366">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19726,7 +19726,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19773,7 +19773,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19820,7 +19820,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19870,7 +19870,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R370">
         <v>18</v>
@@ -19923,7 +19923,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="R371">
         <v>26</v>
@@ -19976,7 +19976,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20026,7 +20026,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="R373">
         <v>7</v>
@@ -20079,7 +20079,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20126,7 +20126,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20173,7 +20173,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20220,7 +20220,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20270,7 +20270,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20317,7 +20317,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R379">
         <v>32</v>
@@ -20370,7 +20370,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R380">
         <v>1</v>
@@ -20420,7 +20420,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20470,7 +20470,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R382">
         <v>20</v>
@@ -20520,7 +20520,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20570,7 +20570,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R384">
         <v>19</v>
@@ -20623,7 +20623,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20670,7 +20670,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20720,7 +20720,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20770,7 +20770,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R388">
         <v>23</v>
@@ -20820,7 +20820,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20867,7 +20867,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20911,7 +20911,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20961,7 +20961,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R392">
         <v>0</v>
@@ -21011,7 +21011,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21058,7 +21058,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21105,7 +21105,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21152,7 +21152,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21199,7 +21199,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21246,7 +21246,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21293,7 +21293,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21343,7 +21343,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R400">
         <v>20</v>
@@ -21393,7 +21393,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21440,7 +21440,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21490,7 +21490,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R403">
         <v>18</v>
@@ -21543,7 +21543,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R404">
         <v>20</v>
@@ -21596,7 +21596,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21643,7 +21643,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21690,7 +21690,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21740,7 +21740,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R408">
         <v>16</v>
@@ -21793,7 +21793,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21840,7 +21840,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21887,7 +21887,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21937,7 +21937,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R412">
         <v>26</v>
@@ -21990,7 +21990,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22040,7 +22040,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R414">
         <v>13</v>
@@ -22090,7 +22090,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22137,7 +22137,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22184,7 +22184,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22234,7 +22234,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R418">
         <v>28</v>
@@ -22287,7 +22287,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22334,7 +22334,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22381,7 +22381,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22428,7 +22428,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22475,7 +22475,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22522,7 +22522,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22569,7 +22569,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22616,7 +22616,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22663,7 +22663,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22713,7 +22713,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R428">
         <v>17</v>
@@ -22766,7 +22766,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R429">
         <v>13</v>
@@ -22819,7 +22819,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22866,7 +22866,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22913,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -22960,7 +22960,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23007,7 +23007,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23057,7 +23057,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R435">
         <v>16</v>
@@ -23110,7 +23110,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23157,7 +23157,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23204,7 +23204,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23251,7 +23251,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23301,7 +23301,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R440">
         <v>11</v>
@@ -23354,7 +23354,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R441">
         <v>16</v>
@@ -23404,7 +23404,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23454,7 +23454,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R443">
         <v>4</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23598,7 +23598,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23645,7 +23645,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23745,7 +23745,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R449">
         <v>4</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23839,7 +23839,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23889,7 +23889,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R452">
         <v>12</v>
@@ -23939,7 +23939,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -23989,7 +23989,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R454">
         <v>25</v>
@@ -24039,7 +24039,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24086,7 +24086,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24230,7 +24230,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R459">
         <v>19</v>
@@ -24283,7 +24283,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24330,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24380,7 +24380,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24430,7 +24430,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R463">
         <v>27</v>
@@ -24483,7 +24483,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24530,7 +24530,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24577,7 +24577,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24624,7 +24624,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24674,7 +24674,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R468">
         <v>11</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24771,7 +24771,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24818,7 +24818,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24868,7 +24868,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24915,7 +24915,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25009,7 +25009,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25056,7 +25056,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25103,7 +25103,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25150,7 +25150,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25200,7 +25200,7 @@
         <v>1</v>
       </c>
       <c r="Q479">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R479">
         <v>26</v>
@@ -25253,7 +25253,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R480">
         <v>12</v>
@@ -25306,7 +25306,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25353,7 +25353,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25400,7 +25400,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25494,7 +25494,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25541,7 +25541,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25591,7 +25591,7 @@
         <v>1</v>
       </c>
       <c r="Q487">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R487">
         <v>11</v>
@@ -25641,7 +25641,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25738,7 +25738,7 @@
         <v>1</v>
       </c>
       <c r="Q490">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R490">
         <v>19</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25835,7 +25835,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -25929,7 +25929,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -25979,7 +25979,7 @@
         <v>1</v>
       </c>
       <c r="Q495">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R495">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26126,7 +26126,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26173,7 +26173,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26220,7 +26220,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26267,7 +26267,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26314,7 +26314,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26364,7 +26364,7 @@
         <v>1</v>
       </c>
       <c r="Q503">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R503">
         <v>12</v>
@@ -26414,7 +26414,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26461,7 +26461,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26511,7 +26511,7 @@
         <v>1</v>
       </c>
       <c r="Q506">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R506">
         <v>17</v>
@@ -26561,7 +26561,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26608,7 +26608,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26655,7 +26655,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26702,7 +26702,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26749,7 +26749,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -26843,7 +26843,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -26893,7 +26893,7 @@
         <v>1</v>
       </c>
       <c r="Q514">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R514">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -26990,7 +26990,7 @@
         <v>1</v>
       </c>
       <c r="Q516">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R516">
         <v>12</v>
@@ -27040,7 +27040,7 @@
         <v>0</v>
       </c>
       <c r="Q517">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27090,7 +27090,7 @@
         <v>1</v>
       </c>
       <c r="Q518">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R518">
         <v>7</v>
@@ -27140,7 +27140,7 @@
         <v>0</v>
       </c>
       <c r="Q519">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="520" spans="1:18">
@@ -27184,7 +27184,7 @@
         <v>0</v>
       </c>
       <c r="Q520">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="521" spans="1:18">
@@ -27234,7 +27234,7 @@
         <v>1</v>
       </c>
       <c r="Q521">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R521">
         <v>2</v>
@@ -27284,7 +27284,7 @@
         <v>0</v>
       </c>
       <c r="Q522">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="523" spans="1:18">
@@ -27328,7 +27328,7 @@
         <v>0</v>
       </c>
       <c r="Q523">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="524" spans="1:18">
@@ -27375,7 +27375,7 @@
         <v>0</v>
       </c>
       <c r="Q524">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="525" spans="1:18">
@@ -27422,7 +27422,7 @@
         <v>0</v>
       </c>
       <c r="Q525">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="526" spans="1:18">
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="Q526">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="527" spans="1:18">
@@ -27516,7 +27516,7 @@
         <v>0</v>
       </c>
       <c r="Q527">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="528" spans="1:18">
@@ -27563,7 +27563,7 @@
         <v>0</v>
       </c>
       <c r="Q528">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="529" spans="1:18">
@@ -27610,7 +27610,7 @@
         <v>0</v>
       </c>
       <c r="Q529">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="530" spans="1:18">
@@ -27657,7 +27657,7 @@
         <v>0</v>
       </c>
       <c r="Q530">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="531" spans="1:18">
@@ -27707,7 +27707,7 @@
         <v>1</v>
       </c>
       <c r="Q531">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R531">
         <v>1</v>
@@ -27760,7 +27760,7 @@
         <v>1</v>
       </c>
       <c r="Q532">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R532">
         <v>12</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="Q533">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="534" spans="1:18">
@@ -27860,7 +27860,7 @@
         <v>0</v>
       </c>
       <c r="Q534">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="535" spans="1:18">
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="Q535">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="536" spans="1:18">
@@ -27954,7 +27954,7 @@
         <v>0</v>
       </c>
       <c r="Q536">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="537" spans="1:18">
@@ -28004,7 +28004,7 @@
         <v>1</v>
       </c>
       <c r="Q537">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R537">
         <v>3</v>
@@ -28057,7 +28057,7 @@
         <v>1</v>
       </c>
       <c r="Q538">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R538">
         <v>3</v>
@@ -28101,10 +28101,10 @@
         <v>1</v>
       </c>
       <c r="P539" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q539">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="540" spans="1:18">
@@ -28145,7 +28145,7 @@
         <v>0</v>
       </c>
       <c r="Q540">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
